--- a/Chemistry/draft/data/data.xlsx
+++ b/Chemistry/draft/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Folder2021\IAProjects\Chemistry\draft\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE68F5D-A536-4A31-97CB-EAE77D7D479D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88B3C15-2424-46E9-B4D0-7665327E4799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="484" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,29 +353,14 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="13"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -383,6 +368,21 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Accent 1 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1060,7 +1060,17 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-NZ" baseline="0"/>
-              <a:t> temperature of air mixture against its pressure (trial 4)</a:t>
+              <a:t> temperature of air mixture against its pressure (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>experiment</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> 4)</a:t>
             </a:r>
             <a:endParaRPr lang="en-NZ"/>
           </a:p>
@@ -1864,7 +1874,17 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-NZ" baseline="0"/>
-              <a:t> temperature of air mixture against its pressure (trial 5)</a:t>
+              <a:t> temperature of air mixture against its pressure (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>experiment</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> 5)</a:t>
             </a:r>
             <a:endParaRPr lang="en-NZ"/>
           </a:p>
@@ -7314,7 +7334,17 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-NZ" baseline="0"/>
-              <a:t> temperature of air mixture against its pressure (trial 1)</a:t>
+              <a:t> temperature of air mixture against its pressure (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>experiment</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> 1)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8285,7 +8315,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-NZ" baseline="0"/>
-              <a:t> temperature of air mixture against its pressure (trial 2)</a:t>
+              <a:t> temperature of air mixture against its pressure (experiment 2)</a:t>
             </a:r>
             <a:endParaRPr lang="en-NZ"/>
           </a:p>
@@ -9219,7 +9249,17 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-NZ" baseline="0"/>
-              <a:t> temperature of air mixture against its pressure (trial 3)</a:t>
+              <a:t> temperature of air mixture against its pressure (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>experiment</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> 3)</a:t>
             </a:r>
             <a:endParaRPr lang="en-NZ"/>
           </a:p>
@@ -16510,8 +16550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:M365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G232" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="R235" sqref="R235"/>
+    <sheetView tabSelected="1" topLeftCell="J187" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16544,50 +16584,50 @@
       </c>
     </row>
     <row r="6" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="25"/>
+      <c r="G6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="7" t="s">
+      <c r="H6" s="23"/>
+      <c r="I6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="7" t="s">
+      <c r="J6" s="23"/>
+      <c r="K6" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="12" t="s">
         <v>26</v>
       </c>
       <c r="K7" t="s">
@@ -16598,60 +16638,60 @@
       </c>
     </row>
     <row r="8" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <v>22.5</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="13">
         <v>15</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="11">
         <v>18.3</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="13">
         <v>14.75</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="11">
         <v>19.5</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="13">
         <v>14.25</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="11">
         <v>19.7</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="13">
         <v>14.5</v>
       </c>
       <c r="K9" s="2">
@@ -16662,28 +16702,28 @@
       </c>
     </row>
     <row r="10" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="14">
+      <c r="C10" s="11">
         <v>25.3</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="13">
         <v>15</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="11">
         <v>18.399999999999999</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="13">
         <v>14.75</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="11">
         <v>23</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="13">
         <v>14.5</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="11">
         <v>23.4</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="13">
         <v>14.75</v>
       </c>
       <c r="K10" s="2">
@@ -16694,28 +16734,28 @@
       </c>
     </row>
     <row r="11" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="14">
+      <c r="C11" s="11">
         <v>29.7</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="13">
         <v>15</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="11">
         <v>22</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="13">
         <v>15</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="11">
         <v>28</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="13">
         <v>14.75</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="11">
         <v>32.4</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="13">
         <v>15</v>
       </c>
       <c r="K11" s="2">
@@ -16726,28 +16766,28 @@
       </c>
     </row>
     <row r="12" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="14">
+      <c r="C12" s="11">
         <v>36.6</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="13">
         <v>15.5</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="11">
         <v>28.6</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="13">
         <v>15.25</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="11">
         <v>33</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="13">
         <v>15</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="11">
         <v>40.299999999999997</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="13">
         <v>15.25</v>
       </c>
       <c r="K12" s="2">
@@ -16758,28 +16798,28 @@
       </c>
     </row>
     <row r="13" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="14">
+      <c r="C13" s="11">
         <v>42.5</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="13">
         <v>16</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="11">
         <v>34</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="13">
         <v>15.25</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="11">
         <v>44</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="13">
         <v>15.25</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="11">
         <v>45.7</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="13">
         <v>15.5</v>
       </c>
       <c r="K13" s="2">
@@ -16790,28 +16830,28 @@
       </c>
     </row>
     <row r="14" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="14">
+      <c r="C14" s="11">
         <v>49</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="13">
         <v>16</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="11">
         <v>40.9</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="13">
         <v>15.75</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="11">
         <v>47.2</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="13">
         <v>15.5</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="11">
         <v>55.5</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="13">
         <v>16</v>
       </c>
       <c r="K14" s="2">
@@ -16822,28 +16862,28 @@
       </c>
     </row>
     <row r="15" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="14">
+      <c r="C15" s="11">
         <v>56</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="13">
         <v>16.5</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="11">
         <v>48.4</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="13">
         <v>16</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="11">
         <v>50.5</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="13">
         <v>15.75</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="11">
         <v>62.2</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="13">
         <v>16.25</v>
       </c>
       <c r="K15" s="2">
@@ -16854,28 +16894,28 @@
       </c>
     </row>
     <row r="16" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="14">
+      <c r="C16" s="11">
         <v>61.5</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="13">
         <v>16.75</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="11">
         <v>54.4</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="13">
         <v>16.25</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="11">
         <v>55.2</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="13">
         <v>16</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="11">
         <v>64.5</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="13">
         <v>16.5</v>
       </c>
       <c r="K16" s="2">
@@ -16886,28 +16926,28 @@
       </c>
     </row>
     <row r="17" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="14">
+      <c r="C17" s="11">
         <v>68.599999999999994</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="13">
         <v>17</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="11">
         <v>60.5</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="13">
         <v>16.5</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="11">
         <v>63.1</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="13">
         <v>16.25</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="11">
         <v>67.599999999999994</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="13">
         <v>16.75</v>
       </c>
       <c r="K17" s="2">
@@ -16918,28 +16958,28 @@
       </c>
     </row>
     <row r="18" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="14">
+      <c r="C18" s="11">
         <v>77.099999999999994</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="13">
         <v>17</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="11">
         <v>67.400000000000006</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="13">
         <v>17</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="11">
         <v>66.400000000000006</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="13">
         <v>16.5</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="11">
         <v>74.599999999999994</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="13">
         <v>17</v>
       </c>
       <c r="K18" s="2">
@@ -16950,26 +16990,26 @@
       </c>
     </row>
     <row r="19" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="14">
+      <c r="C19" s="11">
         <v>80.5</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="13">
         <v>17.5</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="11">
         <v>73.5</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="13">
         <v>17</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="11">
         <v>70</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="13">
         <v>16.75</v>
       </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="16"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
       <c r="K19" s="2">
         <v>76.8</v>
       </c>
@@ -16978,26 +17018,26 @@
       </c>
     </row>
     <row r="20" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="14">
+      <c r="C20" s="11">
         <v>85.6</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="13">
         <v>17.75</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="11">
         <v>79.2</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="13">
         <v>17.25</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="11">
         <v>78</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="13">
         <v>17</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="16"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
       <c r="K20" s="2">
         <v>83</v>
       </c>
@@ -17006,26 +17046,26 @@
       </c>
     </row>
     <row r="21" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="14">
+      <c r="C21" s="11">
         <v>90.7</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="13">
         <v>18</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="11">
         <v>84.6</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="13">
         <v>17.5</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="11">
         <v>86.2</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="13">
         <v>17.25</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="16"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="2">
         <v>87.2</v>
       </c>
@@ -17034,26 +17074,26 @@
       </c>
     </row>
     <row r="22" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="14">
+      <c r="C22" s="11">
         <v>96.6</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="13">
         <v>18</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="11">
         <v>90.7</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="13">
         <v>18</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="11">
         <v>90</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="13">
         <v>17.5</v>
       </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="16"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
       <c r="K22" s="2">
         <v>91.3</v>
       </c>
@@ -17062,26 +17102,26 @@
       </c>
     </row>
     <row r="23" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="14">
+      <c r="C23" s="11">
         <v>100.3</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="13">
         <v>18.5</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="11">
         <v>95.7</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="13">
         <v>18</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="11">
         <v>92</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="13">
         <v>17.75</v>
       </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="16"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12"/>
       <c r="K23" s="2">
         <v>96.6</v>
       </c>
@@ -17090,26 +17130,26 @@
       </c>
     </row>
     <row r="24" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="14">
+      <c r="C24" s="11">
         <v>102.2</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="13">
         <v>18.75</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="11">
         <v>100.4</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="13">
         <v>18.25</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="11">
         <v>98.6</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="13">
         <v>18</v>
       </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="16"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
       <c r="K24" s="2">
         <v>99.6</v>
       </c>
@@ -17118,26 +17158,26 @@
       </c>
     </row>
     <row r="25" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="14">
+      <c r="C25" s="11">
         <v>102.7</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="13">
         <v>19</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="11">
         <v>99.8</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="13">
         <v>18.25</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="11">
         <v>95.4</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="13">
         <v>18</v>
       </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="16"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="12"/>
       <c r="K25" s="2">
         <v>99.7</v>
       </c>
@@ -17146,26 +17186,26 @@
       </c>
     </row>
     <row r="26" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="14">
+      <c r="C26" s="11">
         <v>101</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="13">
         <v>18.75</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="11">
         <v>94</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="13">
         <v>18</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="11">
         <v>89.4</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="13">
         <v>17.75</v>
       </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="16"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="12"/>
       <c r="K26" s="2">
         <v>89</v>
       </c>
@@ -17174,26 +17214,26 @@
       </c>
     </row>
     <row r="27" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="14">
+      <c r="C27" s="11">
         <v>100.1</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="13">
         <v>18.5</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="11">
         <v>93.1</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="13">
         <v>18</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="11">
         <v>86.5</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="13">
         <v>17.5</v>
       </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="16"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="12"/>
       <c r="K27" s="2">
         <v>87.2</v>
       </c>
@@ -17202,26 +17242,26 @@
       </c>
     </row>
     <row r="28" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="14">
+      <c r="C28" s="11">
         <v>99.2</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="13">
         <v>18.5</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="11">
         <v>89.1</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="13">
         <v>18</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="11">
         <v>84.6</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="13">
         <v>17.5</v>
       </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="16"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="12"/>
       <c r="K28" s="2">
         <v>83.7</v>
       </c>
@@ -17230,26 +17270,26 @@
       </c>
     </row>
     <row r="29" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="14">
+      <c r="C29" s="11">
         <v>97.3</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="13">
         <v>18.5</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="11">
         <v>87.7</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="13">
         <v>17.75</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="11">
         <v>83</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="13">
         <v>17.5</v>
       </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="16"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="12"/>
       <c r="K29" s="2">
         <v>81.099999999999994</v>
       </c>
@@ -17258,26 +17298,26 @@
       </c>
     </row>
     <row r="30" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="14">
+      <c r="C30" s="11">
         <v>95.4</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="13">
         <v>18.5</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="11">
         <v>86.1</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="13">
         <v>17.75</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="11">
         <v>79</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="13">
         <v>17.25</v>
       </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="16"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="12"/>
       <c r="K30" s="2">
         <v>79</v>
       </c>
@@ -17286,26 +17326,26 @@
       </c>
     </row>
     <row r="31" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="14">
+      <c r="C31" s="11">
         <v>93.1</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="13">
         <v>18.25</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="11">
         <v>84.4</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="13">
         <v>17.5</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="11">
         <v>77</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="13">
         <v>17.25</v>
       </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="16"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="12"/>
       <c r="K31" s="2">
         <v>77</v>
       </c>
@@ -17314,26 +17354,26 @@
       </c>
     </row>
     <row r="32" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="14">
+      <c r="C32" s="11">
         <v>92</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="13">
         <v>18</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="11">
         <v>80.400000000000006</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="13">
         <v>17.25</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="11">
         <v>75</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="13">
         <v>17</v>
       </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="16"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="12"/>
       <c r="K32" s="2">
         <v>70</v>
       </c>
@@ -17342,26 +17382,26 @@
       </c>
     </row>
     <row r="33" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="14">
+      <c r="C33" s="11">
         <v>89.1</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="13">
         <v>18</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="11">
         <v>75.599999999999994</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="13">
         <v>17</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="11">
         <v>73</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="13">
         <v>17</v>
       </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="16"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="12"/>
       <c r="K33" s="2">
         <v>68</v>
       </c>
@@ -17370,26 +17410,26 @@
       </c>
     </row>
     <row r="34" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="14">
+      <c r="C34" s="11">
         <v>87.7</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="13">
         <v>18</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="11">
         <v>70.400000000000006</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="13">
         <v>17</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="11">
         <v>71.3</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="13">
         <v>17</v>
       </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="16"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="12"/>
       <c r="K34" s="2">
         <v>64.3</v>
       </c>
@@ -17398,148 +17438,148 @@
       </c>
     </row>
     <row r="35" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="14">
+      <c r="C35" s="11">
         <v>86.4</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="13">
         <v>18</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="11">
         <v>67.7</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="13">
         <v>16.75</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="11">
         <v>68.5</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="13">
         <v>16.75</v>
       </c>
-      <c r="I35" s="14"/>
-      <c r="J35" s="16"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="12"/>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="14">
+      <c r="C36" s="11">
         <v>83.2</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="13">
         <v>17.75</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="11">
         <v>64.2</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="13">
         <v>16.5</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="11">
         <v>67</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="13">
         <v>16.75</v>
       </c>
-      <c r="I36" s="14"/>
-      <c r="J36" s="16"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="12"/>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="14">
+      <c r="C37" s="11">
         <v>80.400000000000006</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="13">
         <v>17.75</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="11">
         <v>59.5</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="13">
         <v>16.25</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="11">
         <v>65.599999999999994</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="13">
         <v>16.75</v>
       </c>
-      <c r="I37" s="14"/>
-      <c r="J37" s="16"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="12"/>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="14">
+      <c r="C38" s="11">
         <v>75.400000000000006</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="13">
         <v>17.5</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="11">
         <v>57</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="13">
         <v>16</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="11">
         <v>64.400000000000006</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="13">
         <v>16.5</v>
       </c>
-      <c r="I38" s="14"/>
-      <c r="J38" s="16"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="12"/>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="14">
+      <c r="C39" s="11">
         <v>71</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="13">
         <v>17</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="14">
+      <c r="E39" s="11"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="11">
         <v>63</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="13">
         <v>16.5</v>
       </c>
-      <c r="I39" s="14"/>
-      <c r="J39" s="16"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="12"/>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="14">
+      <c r="C40" s="11">
         <v>67.2</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="13">
         <v>17</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="14">
+      <c r="E40" s="7"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="11">
         <v>62.3</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="13">
         <v>16.5</v>
       </c>
-      <c r="I40" s="14"/>
-      <c r="J40" s="16"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="12"/>
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="10"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="14">
+      <c r="C41" s="7"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="11">
         <v>61</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="13">
         <v>16.25</v>
       </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="16"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="12"/>
       <c r="K41" s="2"/>
     </row>
     <row r="45" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -17559,121 +17599,121 @@
       </c>
     </row>
     <row r="49" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="8" t="s">
+      <c r="D49" s="23"/>
+      <c r="E49" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="7" t="s">
+      <c r="F49" s="25"/>
+      <c r="G49" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="7" t="s">
+      <c r="H49" s="23"/>
+      <c r="I49" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J49" s="15"/>
-      <c r="K49" s="7" t="s">
+      <c r="J49" s="23"/>
+      <c r="K49" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L49" s="7"/>
+      <c r="L49" s="26"/>
     </row>
     <row r="50" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="G50" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="16" t="s">
+      <c r="H50" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I50" s="10" t="s">
+      <c r="I50" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J50" s="16" t="s">
+      <c r="J50" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K50" s="10" t="s">
+      <c r="K50" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L50" s="10" t="s">
+      <c r="L50" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="51" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F51" s="20" t="s">
+      <c r="F51" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="G51" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H51" s="20" t="s">
+      <c r="H51" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I51" s="11" t="s">
+      <c r="I51" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J51" s="20" t="s">
+      <c r="J51" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K51" s="11" t="s">
+      <c r="K51" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L51" s="13" t="s">
+      <c r="L51" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="52" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="14">
-        <f t="shared" ref="C51:C83" si="0">C9</f>
+      <c r="C52" s="11">
+        <f t="shared" ref="C52:C83" si="0">C9</f>
         <v>22.5</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="16">
         <f t="shared" ref="D52:D83" si="1">$D$47*D9</f>
         <v>103.42135500000001</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="11">
         <f t="shared" ref="E52:E81" si="2">E9</f>
         <v>18.3</v>
       </c>
-      <c r="F52" s="21">
+      <c r="F52" s="16">
         <f>$D$47*F9</f>
         <v>101.69766575</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G52" s="11">
         <f t="shared" ref="G52:G84" si="3">G9</f>
         <v>19.5</v>
       </c>
-      <c r="H52" s="21">
+      <c r="H52" s="16">
         <f t="shared" ref="H52:H84" si="4">$D$47*H9</f>
         <v>98.25028725</v>
       </c>
-      <c r="I52" s="14">
+      <c r="I52" s="11">
         <f t="shared" ref="I52:I61" si="5">I9</f>
         <v>19.7</v>
       </c>
-      <c r="J52" s="21">
+      <c r="J52" s="16">
         <f t="shared" ref="J52:J61" si="6">$D$47*J9</f>
         <v>99.973976500000006</v>
       </c>
@@ -17687,35 +17727,35 @@
       </c>
     </row>
     <row r="53" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="14">
+      <c r="C53" s="11">
         <f t="shared" si="0"/>
         <v>25.3</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="16">
         <f>$D$47*D10</f>
         <v>103.42135500000001</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="11">
         <f t="shared" si="2"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F53" s="16">
         <f t="shared" ref="F53:F81" si="9">$D$47*F10</f>
         <v>101.69766575</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G53" s="11">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="H53" s="21">
+      <c r="H53" s="16">
         <f t="shared" si="4"/>
         <v>99.973976500000006</v>
       </c>
-      <c r="I53" s="14">
+      <c r="I53" s="11">
         <f t="shared" si="5"/>
         <v>23.4</v>
       </c>
-      <c r="J53" s="21">
+      <c r="J53" s="16">
         <f t="shared" si="6"/>
         <v>101.69766575</v>
       </c>
@@ -17729,35 +17769,35 @@
       </c>
     </row>
     <row r="54" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="14">
+      <c r="C54" s="11">
         <f t="shared" si="0"/>
         <v>29.7</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="16">
         <f t="shared" si="1"/>
         <v>103.42135500000001</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="11">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F54" s="16">
         <f t="shared" si="9"/>
         <v>103.42135500000001</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G54" s="11">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="H54" s="21">
+      <c r="H54" s="16">
         <f t="shared" si="4"/>
         <v>101.69766575</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I54" s="11">
         <f t="shared" si="5"/>
         <v>32.4</v>
       </c>
-      <c r="J54" s="21">
+      <c r="J54" s="16">
         <f t="shared" si="6"/>
         <v>103.42135500000001</v>
       </c>
@@ -17771,35 +17811,35 @@
       </c>
     </row>
     <row r="55" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="14">
+      <c r="C55" s="11">
         <f t="shared" si="0"/>
         <v>36.6</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D55" s="16">
         <f t="shared" si="1"/>
         <v>106.8687335</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="11">
         <f t="shared" si="2"/>
         <v>28.6</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="16">
         <f t="shared" si="9"/>
         <v>105.14504425</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G55" s="11">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="H55" s="21">
+      <c r="H55" s="16">
         <f t="shared" si="4"/>
         <v>103.42135500000001</v>
       </c>
-      <c r="I55" s="14">
+      <c r="I55" s="11">
         <f t="shared" si="5"/>
         <v>40.299999999999997</v>
       </c>
-      <c r="J55" s="21">
+      <c r="J55" s="16">
         <f t="shared" si="6"/>
         <v>105.14504425</v>
       </c>
@@ -17813,35 +17853,35 @@
       </c>
     </row>
     <row r="56" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="14">
+      <c r="C56" s="11">
         <f t="shared" si="0"/>
         <v>42.5</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D56" s="16">
         <f t="shared" si="1"/>
         <v>110.316112</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="11">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F56" s="16">
         <f t="shared" si="9"/>
         <v>105.14504425</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G56" s="11">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="H56" s="21">
+      <c r="H56" s="16">
         <f t="shared" si="4"/>
         <v>105.14504425</v>
       </c>
-      <c r="I56" s="14">
+      <c r="I56" s="11">
         <f t="shared" si="5"/>
         <v>45.7</v>
       </c>
-      <c r="J56" s="21">
+      <c r="J56" s="16">
         <f t="shared" si="6"/>
         <v>106.8687335</v>
       </c>
@@ -17855,35 +17895,35 @@
       </c>
     </row>
     <row r="57" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="14">
+      <c r="C57" s="11">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="D57" s="21">
+      <c r="D57" s="16">
         <f t="shared" si="1"/>
         <v>110.316112</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="11">
         <f t="shared" si="2"/>
         <v>40.9</v>
       </c>
-      <c r="F57" s="21">
+      <c r="F57" s="16">
         <f t="shared" si="9"/>
         <v>108.59242275</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G57" s="11">
         <f t="shared" si="3"/>
         <v>47.2</v>
       </c>
-      <c r="H57" s="21">
+      <c r="H57" s="16">
         <f t="shared" si="4"/>
         <v>106.8687335</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I57" s="11">
         <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
-      <c r="J57" s="21">
+      <c r="J57" s="16">
         <f t="shared" si="6"/>
         <v>110.316112</v>
       </c>
@@ -17897,35 +17937,35 @@
       </c>
     </row>
     <row r="58" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="14">
+      <c r="C58" s="11">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D58" s="16">
         <f t="shared" si="1"/>
         <v>113.7634905</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E58" s="11">
         <f t="shared" si="2"/>
         <v>48.4</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F58" s="16">
         <f t="shared" si="9"/>
         <v>110.316112</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G58" s="11">
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="H58" s="21">
+      <c r="H58" s="16">
         <f t="shared" si="4"/>
         <v>108.59242275</v>
       </c>
-      <c r="I58" s="14">
+      <c r="I58" s="11">
         <f t="shared" si="5"/>
         <v>62.2</v>
       </c>
-      <c r="J58" s="21">
+      <c r="J58" s="16">
         <f t="shared" si="6"/>
         <v>112.03980125000001</v>
       </c>
@@ -17939,35 +17979,35 @@
       </c>
     </row>
     <row r="59" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="14">
+      <c r="C59" s="11">
         <f t="shared" si="0"/>
         <v>61.5</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D59" s="16">
         <f t="shared" si="1"/>
         <v>115.48717975000001</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="11">
         <f t="shared" si="2"/>
         <v>54.4</v>
       </c>
-      <c r="F59" s="21">
+      <c r="F59" s="16">
         <f t="shared" si="9"/>
         <v>112.03980125000001</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G59" s="11">
         <f t="shared" si="3"/>
         <v>55.2</v>
       </c>
-      <c r="H59" s="21">
+      <c r="H59" s="16">
         <f t="shared" si="4"/>
         <v>110.316112</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I59" s="11">
         <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
-      <c r="J59" s="21">
+      <c r="J59" s="16">
         <f t="shared" si="6"/>
         <v>113.7634905</v>
       </c>
@@ -17981,35 +18021,35 @@
       </c>
     </row>
     <row r="60" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="14">
+      <c r="C60" s="11">
         <f t="shared" si="0"/>
         <v>68.599999999999994</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D60" s="16">
         <f t="shared" si="1"/>
         <v>117.210869</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="11">
         <f t="shared" si="2"/>
         <v>60.5</v>
       </c>
-      <c r="F60" s="21">
+      <c r="F60" s="16">
         <f t="shared" si="9"/>
         <v>113.7634905</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="11">
         <f t="shared" si="3"/>
         <v>63.1</v>
       </c>
-      <c r="H60" s="21">
+      <c r="H60" s="16">
         <f t="shared" si="4"/>
         <v>112.03980125000001</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I60" s="11">
         <f t="shared" si="5"/>
         <v>67.599999999999994</v>
       </c>
-      <c r="J60" s="21">
+      <c r="J60" s="16">
         <f t="shared" si="6"/>
         <v>115.48717975000001</v>
       </c>
@@ -18023,35 +18063,35 @@
       </c>
     </row>
     <row r="61" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="14">
+      <c r="C61" s="11">
         <f t="shared" si="0"/>
         <v>77.099999999999994</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D61" s="16">
         <f t="shared" si="1"/>
         <v>117.210869</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="11">
         <f t="shared" si="2"/>
         <v>67.400000000000006</v>
       </c>
-      <c r="F61" s="21">
+      <c r="F61" s="16">
         <f t="shared" si="9"/>
         <v>117.210869</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G61" s="11">
         <f t="shared" si="3"/>
         <v>66.400000000000006</v>
       </c>
-      <c r="H61" s="21">
+      <c r="H61" s="16">
         <f t="shared" si="4"/>
         <v>113.7634905</v>
       </c>
-      <c r="I61" s="14">
+      <c r="I61" s="11">
         <f t="shared" si="5"/>
         <v>74.599999999999994</v>
       </c>
-      <c r="J61" s="21">
+      <c r="J61" s="16">
         <f t="shared" si="6"/>
         <v>117.210869</v>
       </c>
@@ -18065,32 +18105,32 @@
       </c>
     </row>
     <row r="62" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="14">
+      <c r="C62" s="11">
         <f t="shared" si="0"/>
         <v>80.5</v>
       </c>
-      <c r="D62" s="21">
+      <c r="D62" s="16">
         <f t="shared" si="1"/>
         <v>120.6582475</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E62" s="11">
         <f t="shared" si="2"/>
         <v>73.5</v>
       </c>
-      <c r="F62" s="21">
+      <c r="F62" s="16">
         <f t="shared" si="9"/>
         <v>117.210869</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G62" s="11">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="H62" s="21">
+      <c r="H62" s="16">
         <f t="shared" si="4"/>
         <v>115.48717975000001</v>
       </c>
-      <c r="I62" s="14"/>
-      <c r="J62" s="22"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="17"/>
       <c r="K62" s="2">
         <f t="shared" si="7"/>
         <v>76.8</v>
@@ -18101,32 +18141,32 @@
       </c>
     </row>
     <row r="63" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="14">
+      <c r="C63" s="11">
         <f t="shared" si="0"/>
         <v>85.6</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D63" s="16">
         <f t="shared" si="1"/>
         <v>122.38193675000001</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E63" s="11">
         <f t="shared" si="2"/>
         <v>79.2</v>
       </c>
-      <c r="F63" s="21">
+      <c r="F63" s="16">
         <f t="shared" si="9"/>
         <v>118.93455825000001</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G63" s="11">
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="H63" s="21">
+      <c r="H63" s="16">
         <f t="shared" si="4"/>
         <v>117.210869</v>
       </c>
-      <c r="I63" s="14"/>
-      <c r="J63" s="22"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="17"/>
       <c r="K63" s="2">
         <f t="shared" si="7"/>
         <v>83</v>
@@ -18137,32 +18177,32 @@
       </c>
     </row>
     <row r="64" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="14">
+      <c r="C64" s="11">
         <f t="shared" si="0"/>
         <v>90.7</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D64" s="16">
         <f t="shared" si="1"/>
         <v>124.105626</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E64" s="11">
         <f t="shared" si="2"/>
         <v>84.6</v>
       </c>
-      <c r="F64" s="21">
+      <c r="F64" s="16">
         <f t="shared" si="9"/>
         <v>120.6582475</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G64" s="11">
         <f t="shared" si="3"/>
         <v>86.2</v>
       </c>
-      <c r="H64" s="21">
+      <c r="H64" s="16">
         <f t="shared" si="4"/>
         <v>118.93455825000001</v>
       </c>
-      <c r="I64" s="14"/>
-      <c r="J64" s="22"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="17"/>
       <c r="K64" s="2">
         <f t="shared" si="7"/>
         <v>87.2</v>
@@ -18173,32 +18213,32 @@
       </c>
     </row>
     <row r="65" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="14">
+      <c r="C65" s="11">
         <f t="shared" si="0"/>
         <v>96.6</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D65" s="16">
         <f t="shared" si="1"/>
         <v>124.105626</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E65" s="11">
         <f t="shared" si="2"/>
         <v>90.7</v>
       </c>
-      <c r="F65" s="21">
+      <c r="F65" s="16">
         <f t="shared" si="9"/>
         <v>124.105626</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G65" s="11">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="H65" s="21">
+      <c r="H65" s="16">
         <f t="shared" si="4"/>
         <v>120.6582475</v>
       </c>
-      <c r="I65" s="14"/>
-      <c r="J65" s="22"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="17"/>
       <c r="K65" s="2">
         <f t="shared" si="7"/>
         <v>91.3</v>
@@ -18209,32 +18249,32 @@
       </c>
     </row>
     <row r="66" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="14">
+      <c r="C66" s="11">
         <f t="shared" si="0"/>
         <v>100.3</v>
       </c>
-      <c r="D66" s="21">
+      <c r="D66" s="16">
         <f t="shared" si="1"/>
         <v>127.5530045</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E66" s="11">
         <f t="shared" si="2"/>
         <v>95.7</v>
       </c>
-      <c r="F66" s="21">
+      <c r="F66" s="16">
         <f t="shared" si="9"/>
         <v>124.105626</v>
       </c>
-      <c r="G66" s="14">
+      <c r="G66" s="11">
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
-      <c r="H66" s="21">
+      <c r="H66" s="16">
         <f t="shared" si="4"/>
         <v>122.38193675000001</v>
       </c>
-      <c r="I66" s="14"/>
-      <c r="J66" s="22"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="17"/>
       <c r="K66" s="2">
         <f t="shared" si="7"/>
         <v>96.6</v>
@@ -18245,32 +18285,32 @@
       </c>
     </row>
     <row r="67" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="14">
+      <c r="C67" s="11">
         <f t="shared" si="0"/>
         <v>102.2</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D67" s="16">
         <f t="shared" si="1"/>
         <v>129.27669374999999</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E67" s="11">
         <f t="shared" si="2"/>
         <v>100.4</v>
       </c>
-      <c r="F67" s="21">
+      <c r="F67" s="16">
         <f t="shared" si="9"/>
         <v>125.82931525000001</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G67" s="11">
         <f t="shared" si="3"/>
         <v>98.6</v>
       </c>
-      <c r="H67" s="21">
+      <c r="H67" s="16">
         <f t="shared" si="4"/>
         <v>124.105626</v>
       </c>
-      <c r="I67" s="14"/>
-      <c r="J67" s="22"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="17"/>
       <c r="K67" s="2">
         <f t="shared" si="7"/>
         <v>99.6</v>
@@ -18281,32 +18321,32 @@
       </c>
     </row>
     <row r="68" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="14">
+      <c r="C68" s="11">
         <f t="shared" si="0"/>
         <v>102.7</v>
       </c>
-      <c r="D68" s="21">
+      <c r="D68" s="16">
         <f t="shared" si="1"/>
         <v>131.000383</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E68" s="11">
         <f t="shared" si="2"/>
         <v>99.8</v>
       </c>
-      <c r="F68" s="21">
+      <c r="F68" s="16">
         <f t="shared" si="9"/>
         <v>125.82931525000001</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G68" s="11">
         <f t="shared" si="3"/>
         <v>95.4</v>
       </c>
-      <c r="H68" s="21">
+      <c r="H68" s="16">
         <f t="shared" si="4"/>
         <v>124.105626</v>
       </c>
-      <c r="I68" s="14"/>
-      <c r="J68" s="22"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="17"/>
       <c r="K68" s="2">
         <f t="shared" si="7"/>
         <v>99.7</v>
@@ -18317,32 +18357,32 @@
       </c>
     </row>
     <row r="69" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="14">
+      <c r="C69" s="11">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="D69" s="21">
+      <c r="D69" s="16">
         <f t="shared" si="1"/>
         <v>129.27669374999999</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69" s="11">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="F69" s="21">
+      <c r="F69" s="16">
         <f t="shared" si="9"/>
         <v>124.105626</v>
       </c>
-      <c r="G69" s="14">
+      <c r="G69" s="11">
         <f t="shared" si="3"/>
         <v>89.4</v>
       </c>
-      <c r="H69" s="21">
+      <c r="H69" s="16">
         <f t="shared" si="4"/>
         <v>122.38193675000001</v>
       </c>
-      <c r="I69" s="14"/>
-      <c r="J69" s="22"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="17"/>
       <c r="K69" s="2">
         <f t="shared" si="7"/>
         <v>89</v>
@@ -18353,32 +18393,32 @@
       </c>
     </row>
     <row r="70" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="14">
+      <c r="C70" s="11">
         <f t="shared" si="0"/>
         <v>100.1</v>
       </c>
-      <c r="D70" s="21">
+      <c r="D70" s="16">
         <f t="shared" si="1"/>
         <v>127.5530045</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E70" s="11">
         <f t="shared" si="2"/>
         <v>93.1</v>
       </c>
-      <c r="F70" s="21">
+      <c r="F70" s="16">
         <f t="shared" si="9"/>
         <v>124.105626</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G70" s="11">
         <f t="shared" si="3"/>
         <v>86.5</v>
       </c>
-      <c r="H70" s="21">
+      <c r="H70" s="16">
         <f t="shared" si="4"/>
         <v>120.6582475</v>
       </c>
-      <c r="I70" s="14"/>
-      <c r="J70" s="22"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="17"/>
       <c r="K70" s="2">
         <f t="shared" si="7"/>
         <v>87.2</v>
@@ -18389,32 +18429,32 @@
       </c>
     </row>
     <row r="71" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="14">
+      <c r="C71" s="11">
         <f t="shared" si="0"/>
         <v>99.2</v>
       </c>
-      <c r="D71" s="21">
+      <c r="D71" s="16">
         <f t="shared" si="1"/>
         <v>127.5530045</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E71" s="11">
         <f t="shared" si="2"/>
         <v>89.1</v>
       </c>
-      <c r="F71" s="21">
+      <c r="F71" s="16">
         <f t="shared" si="9"/>
         <v>124.105626</v>
       </c>
-      <c r="G71" s="14">
+      <c r="G71" s="11">
         <f t="shared" si="3"/>
         <v>84.6</v>
       </c>
-      <c r="H71" s="21">
+      <c r="H71" s="16">
         <f t="shared" si="4"/>
         <v>120.6582475</v>
       </c>
-      <c r="I71" s="14"/>
-      <c r="J71" s="22"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="17"/>
       <c r="K71" s="2">
         <f t="shared" si="7"/>
         <v>83.7</v>
@@ -18425,32 +18465,32 @@
       </c>
     </row>
     <row r="72" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="14">
+      <c r="C72" s="11">
         <f t="shared" si="0"/>
         <v>97.3</v>
       </c>
-      <c r="D72" s="21">
+      <c r="D72" s="16">
         <f t="shared" si="1"/>
         <v>127.5530045</v>
       </c>
-      <c r="E72" s="14">
+      <c r="E72" s="11">
         <f t="shared" si="2"/>
         <v>87.7</v>
       </c>
-      <c r="F72" s="21">
+      <c r="F72" s="16">
         <f t="shared" si="9"/>
         <v>122.38193675000001</v>
       </c>
-      <c r="G72" s="14">
+      <c r="G72" s="11">
         <f t="shared" si="3"/>
         <v>83</v>
       </c>
-      <c r="H72" s="21">
+      <c r="H72" s="16">
         <f t="shared" si="4"/>
         <v>120.6582475</v>
       </c>
-      <c r="I72" s="14"/>
-      <c r="J72" s="22"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="17"/>
       <c r="K72" s="2">
         <f t="shared" si="7"/>
         <v>81.099999999999994</v>
@@ -18461,32 +18501,32 @@
       </c>
     </row>
     <row r="73" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="14">
+      <c r="C73" s="11">
         <f t="shared" si="0"/>
         <v>95.4</v>
       </c>
-      <c r="D73" s="21">
+      <c r="D73" s="16">
         <f t="shared" si="1"/>
         <v>127.5530045</v>
       </c>
-      <c r="E73" s="14">
+      <c r="E73" s="11">
         <f t="shared" si="2"/>
         <v>86.1</v>
       </c>
-      <c r="F73" s="21">
+      <c r="F73" s="16">
         <f t="shared" si="9"/>
         <v>122.38193675000001</v>
       </c>
-      <c r="G73" s="14">
+      <c r="G73" s="11">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="H73" s="21">
+      <c r="H73" s="16">
         <f t="shared" si="4"/>
         <v>118.93455825000001</v>
       </c>
-      <c r="I73" s="14"/>
-      <c r="J73" s="22"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="17"/>
       <c r="K73" s="2">
         <f t="shared" si="7"/>
         <v>79</v>
@@ -18497,32 +18537,32 @@
       </c>
     </row>
     <row r="74" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="14">
+      <c r="C74" s="11">
         <f t="shared" si="0"/>
         <v>93.1</v>
       </c>
-      <c r="D74" s="21">
+      <c r="D74" s="16">
         <f t="shared" si="1"/>
         <v>125.82931525000001</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E74" s="11">
         <f t="shared" si="2"/>
         <v>84.4</v>
       </c>
-      <c r="F74" s="21">
+      <c r="F74" s="16">
         <f t="shared" si="9"/>
         <v>120.6582475</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G74" s="11">
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
-      <c r="H74" s="21">
+      <c r="H74" s="16">
         <f t="shared" si="4"/>
         <v>118.93455825000001</v>
       </c>
-      <c r="I74" s="14"/>
-      <c r="J74" s="22"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="17"/>
       <c r="K74" s="2">
         <f t="shared" si="7"/>
         <v>77</v>
@@ -18533,32 +18573,32 @@
       </c>
     </row>
     <row r="75" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="14">
+      <c r="C75" s="11">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="D75" s="21">
+      <c r="D75" s="16">
         <f t="shared" si="1"/>
         <v>124.105626</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E75" s="11">
         <f t="shared" si="2"/>
         <v>80.400000000000006</v>
       </c>
-      <c r="F75" s="21">
+      <c r="F75" s="16">
         <f t="shared" si="9"/>
         <v>118.93455825000001</v>
       </c>
-      <c r="G75" s="14">
+      <c r="G75" s="11">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="H75" s="21">
+      <c r="H75" s="16">
         <f t="shared" si="4"/>
         <v>117.210869</v>
       </c>
-      <c r="I75" s="14"/>
-      <c r="J75" s="22"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="17"/>
       <c r="K75" s="2">
         <f t="shared" si="7"/>
         <v>70</v>
@@ -18569,32 +18609,32 @@
       </c>
     </row>
     <row r="76" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="14">
+      <c r="C76" s="11">
         <f t="shared" si="0"/>
         <v>89.1</v>
       </c>
-      <c r="D76" s="21">
+      <c r="D76" s="16">
         <f t="shared" si="1"/>
         <v>124.105626</v>
       </c>
-      <c r="E76" s="14">
+      <c r="E76" s="11">
         <f t="shared" si="2"/>
         <v>75.599999999999994</v>
       </c>
-      <c r="F76" s="21">
+      <c r="F76" s="16">
         <f t="shared" si="9"/>
         <v>117.210869</v>
       </c>
-      <c r="G76" s="14">
+      <c r="G76" s="11">
         <f t="shared" si="3"/>
         <v>73</v>
       </c>
-      <c r="H76" s="21">
+      <c r="H76" s="16">
         <f t="shared" si="4"/>
         <v>117.210869</v>
       </c>
-      <c r="I76" s="14"/>
-      <c r="J76" s="22"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="17"/>
       <c r="K76" s="2">
         <f t="shared" si="7"/>
         <v>68</v>
@@ -18605,32 +18645,32 @@
       </c>
     </row>
     <row r="77" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="14">
+      <c r="C77" s="11">
         <f t="shared" si="0"/>
         <v>87.7</v>
       </c>
-      <c r="D77" s="21">
+      <c r="D77" s="16">
         <f t="shared" si="1"/>
         <v>124.105626</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E77" s="11">
         <f t="shared" si="2"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="F77" s="21">
+      <c r="F77" s="16">
         <f t="shared" si="9"/>
         <v>117.210869</v>
       </c>
-      <c r="G77" s="14">
+      <c r="G77" s="11">
         <f t="shared" si="3"/>
         <v>71.3</v>
       </c>
-      <c r="H77" s="21">
+      <c r="H77" s="16">
         <f t="shared" si="4"/>
         <v>117.210869</v>
       </c>
-      <c r="I77" s="14"/>
-      <c r="J77" s="22"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="17"/>
       <c r="K77" s="2">
         <f t="shared" si="7"/>
         <v>64.3</v>
@@ -18641,188 +18681,188 @@
       </c>
     </row>
     <row r="78" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="14">
+      <c r="C78" s="11">
         <f t="shared" si="0"/>
         <v>86.4</v>
       </c>
-      <c r="D78" s="21">
+      <c r="D78" s="16">
         <f t="shared" si="1"/>
         <v>124.105626</v>
       </c>
-      <c r="E78" s="14">
+      <c r="E78" s="11">
         <f t="shared" si="2"/>
         <v>67.7</v>
       </c>
-      <c r="F78" s="21">
+      <c r="F78" s="16">
         <f t="shared" si="9"/>
         <v>115.48717975000001</v>
       </c>
-      <c r="G78" s="14">
+      <c r="G78" s="11">
         <f t="shared" si="3"/>
         <v>68.5</v>
       </c>
-      <c r="H78" s="21">
+      <c r="H78" s="16">
         <f t="shared" si="4"/>
         <v>115.48717975000001</v>
       </c>
-      <c r="I78" s="14"/>
-      <c r="J78" s="22"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="17"/>
       <c r="K78" s="2"/>
       <c r="L78" s="5"/>
     </row>
     <row r="79" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="14">
+      <c r="C79" s="11">
         <f t="shared" si="0"/>
         <v>83.2</v>
       </c>
-      <c r="D79" s="21">
+      <c r="D79" s="16">
         <f t="shared" si="1"/>
         <v>122.38193675000001</v>
       </c>
-      <c r="E79" s="14">
+      <c r="E79" s="11">
         <f t="shared" si="2"/>
         <v>64.2</v>
       </c>
-      <c r="F79" s="21">
+      <c r="F79" s="16">
         <f t="shared" si="9"/>
         <v>113.7634905</v>
       </c>
-      <c r="G79" s="14">
+      <c r="G79" s="11">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="H79" s="21">
+      <c r="H79" s="16">
         <f t="shared" si="4"/>
         <v>115.48717975000001</v>
       </c>
-      <c r="I79" s="14"/>
-      <c r="J79" s="22"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="17"/>
       <c r="K79" s="2"/>
       <c r="L79" s="5"/>
     </row>
     <row r="80" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="14">
+      <c r="C80" s="11">
         <f t="shared" si="0"/>
         <v>80.400000000000006</v>
       </c>
-      <c r="D80" s="21">
+      <c r="D80" s="16">
         <f t="shared" si="1"/>
         <v>122.38193675000001</v>
       </c>
-      <c r="E80" s="14">
+      <c r="E80" s="11">
         <f t="shared" si="2"/>
         <v>59.5</v>
       </c>
-      <c r="F80" s="21">
+      <c r="F80" s="16">
         <f t="shared" si="9"/>
         <v>112.03980125000001</v>
       </c>
-      <c r="G80" s="14">
+      <c r="G80" s="11">
         <f t="shared" si="3"/>
         <v>65.599999999999994</v>
       </c>
-      <c r="H80" s="21">
+      <c r="H80" s="16">
         <f t="shared" si="4"/>
         <v>115.48717975000001</v>
       </c>
-      <c r="I80" s="14"/>
-      <c r="J80" s="22"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="17"/>
       <c r="K80" s="2"/>
       <c r="L80" s="5"/>
     </row>
     <row r="81" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="14">
+      <c r="C81" s="11">
         <f t="shared" si="0"/>
         <v>75.400000000000006</v>
       </c>
-      <c r="D81" s="21">
+      <c r="D81" s="16">
         <f t="shared" si="1"/>
         <v>120.6582475</v>
       </c>
-      <c r="E81" s="14">
+      <c r="E81" s="11">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="F81" s="21">
+      <c r="F81" s="16">
         <f t="shared" si="9"/>
         <v>110.316112</v>
       </c>
-      <c r="G81" s="14">
+      <c r="G81" s="11">
         <f t="shared" si="3"/>
         <v>64.400000000000006</v>
       </c>
-      <c r="H81" s="21">
+      <c r="H81" s="16">
         <f t="shared" si="4"/>
         <v>113.7634905</v>
       </c>
-      <c r="I81" s="14"/>
-      <c r="J81" s="22"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="17"/>
       <c r="K81" s="2"/>
       <c r="L81" s="5"/>
     </row>
     <row r="82" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C82" s="14">
+      <c r="C82" s="11">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="D82" s="21">
+      <c r="D82" s="16">
         <f t="shared" si="1"/>
         <v>117.210869</v>
       </c>
-      <c r="E82" s="14"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="14">
+      <c r="E82" s="11"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="11">
         <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="H82" s="21">
+      <c r="H82" s="16">
         <f t="shared" si="4"/>
         <v>113.7634905</v>
       </c>
-      <c r="I82" s="14"/>
-      <c r="J82" s="22"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="17"/>
       <c r="K82" s="2"/>
       <c r="L82" s="5"/>
     </row>
     <row r="83" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C83" s="14">
+      <c r="C83" s="11">
         <f t="shared" si="0"/>
         <v>67.2</v>
       </c>
-      <c r="D83" s="21">
+      <c r="D83" s="16">
         <f t="shared" si="1"/>
         <v>117.210869</v>
       </c>
-      <c r="E83" s="14"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="14">
+      <c r="E83" s="11"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="11">
         <f t="shared" si="3"/>
         <v>62.3</v>
       </c>
-      <c r="H83" s="21">
+      <c r="H83" s="16">
         <f t="shared" si="4"/>
         <v>113.7634905</v>
       </c>
-      <c r="I83" s="14"/>
-      <c r="J83" s="22"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="17"/>
       <c r="K83" s="2"/>
       <c r="L83" s="5"/>
     </row>
     <row r="84" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="14"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="14">
+      <c r="C84" s="11"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="11">
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="H84" s="21">
+      <c r="H84" s="16">
         <f t="shared" si="4"/>
         <v>112.03980125000001</v>
       </c>
-      <c r="I84" s="14"/>
-      <c r="J84" s="22"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="17"/>
       <c r="K84" s="2"/>
       <c r="L84" s="5"/>
     </row>
@@ -18844,131 +18884,131 @@
       </c>
     </row>
     <row r="90" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D90" s="15"/>
-      <c r="E90" s="8" t="s">
+      <c r="D90" s="23"/>
+      <c r="E90" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F90" s="19"/>
-      <c r="G90" s="7" t="s">
+      <c r="F90" s="25"/>
+      <c r="G90" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="7" t="s">
+      <c r="H90" s="23"/>
+      <c r="I90" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J90" s="15"/>
-      <c r="K90" s="7" t="s">
+      <c r="J90" s="23"/>
+      <c r="K90" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L90" s="7"/>
+      <c r="L90" s="26"/>
     </row>
     <row r="91" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="23" t="s">
+      <c r="D91" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E91" s="11" t="s">
+      <c r="E91" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F91" s="23" t="s">
+      <c r="F91" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G91" s="11" t="s">
+      <c r="G91" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H91" s="23" t="s">
+      <c r="H91" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I91" s="11" t="s">
+      <c r="I91" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J91" s="23" t="s">
+      <c r="J91" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K91" s="11" t="s">
+      <c r="K91" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L91" s="23" t="s">
+      <c r="L91" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="92" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C92" s="24">
+      <c r="C92" s="19">
         <f>$D$4/ D9</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="D92" s="21">
+      <c r="D92" s="16">
         <f t="shared" ref="D92:D123" si="10">C92*D52</f>
         <v>1.7236892500000001</v>
       </c>
-      <c r="E92" s="24">
-        <f t="shared" ref="E92:L92" si="11">$D$4/ F9</f>
+      <c r="E92" s="19">
+        <f t="shared" ref="E92" si="11">$D$4/ F9</f>
         <v>1.6949152542372881E-2</v>
       </c>
-      <c r="F92" s="21">
-        <f t="shared" ref="F92:F123" si="12">E92*F52</f>
+      <c r="F92" s="16">
+        <f t="shared" ref="F92:F121" si="12">E92*F52</f>
         <v>1.7236892500000001</v>
       </c>
-      <c r="G92" s="24">
-        <f t="shared" ref="G92:L92" si="13">$D$4/ H9</f>
+      <c r="G92" s="19">
+        <f t="shared" ref="G92" si="13">$D$4/ H9</f>
         <v>1.7543859649122806E-2</v>
       </c>
-      <c r="H92" s="21">
+      <c r="H92" s="16">
         <f t="shared" ref="H92:H123" si="14">G92*H52</f>
         <v>1.7236892499999998</v>
       </c>
-      <c r="I92" s="24">
-        <f t="shared" ref="I92:L92" si="15">$D$4/ J9</f>
+      <c r="I92" s="19">
+        <f t="shared" ref="I92" si="15">$D$4/ J9</f>
         <v>1.7241379310344827E-2</v>
       </c>
-      <c r="J92" s="21">
-        <f t="shared" ref="J92:J123" si="16">I92*J52</f>
+      <c r="J92" s="16">
+        <f t="shared" ref="J92:J101" si="16">I92*J52</f>
         <v>1.7236892500000001</v>
       </c>
       <c r="K92" s="5">
-        <f t="shared" ref="K92:L92" si="17">$D$4/ L9</f>
+        <f t="shared" ref="K92" si="17">$D$4/ L9</f>
         <v>1.7241379310344827E-2</v>
       </c>
       <c r="L92" s="4">
-        <f t="shared" ref="L92:L123" si="18">K92*L52</f>
+        <f t="shared" ref="L92:L117" si="18">K92*L52</f>
         <v>1.7236892500000001</v>
       </c>
     </row>
     <row r="93" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C93" s="24">
+      <c r="C93" s="19">
         <f t="shared" ref="C93:K124" si="19">$D$4/ D10</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="D93" s="21">
+      <c r="D93" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="E93" s="24">
+      <c r="E93" s="19">
         <f t="shared" si="19"/>
         <v>1.6949152542372881E-2</v>
       </c>
-      <c r="F93" s="21">
+      <c r="F93" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="G93" s="24">
+      <c r="G93" s="19">
         <f t="shared" si="19"/>
         <v>1.7241379310344827E-2</v>
       </c>
-      <c r="H93" s="21">
+      <c r="H93" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="I93" s="24">
+      <c r="I93" s="19">
         <f t="shared" si="19"/>
         <v>1.6949152542372881E-2</v>
       </c>
-      <c r="J93" s="21">
+      <c r="J93" s="16">
         <f t="shared" si="16"/>
         <v>1.7236892500000001</v>
       </c>
@@ -18982,35 +19022,35 @@
       </c>
     </row>
     <row r="94" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C94" s="24">
+      <c r="C94" s="19">
         <f t="shared" si="19"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="D94" s="21">
+      <c r="D94" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="E94" s="24">
+      <c r="E94" s="19">
         <f t="shared" si="19"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="F94" s="21">
+      <c r="F94" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="G94" s="24">
+      <c r="G94" s="19">
         <f t="shared" si="19"/>
         <v>1.6949152542372881E-2</v>
       </c>
-      <c r="H94" s="21">
+      <c r="H94" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="I94" s="24">
+      <c r="I94" s="19">
         <f t="shared" si="19"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="J94" s="21">
+      <c r="J94" s="16">
         <f t="shared" si="16"/>
         <v>1.7236892500000001</v>
       </c>
@@ -19024,35 +19064,35 @@
       </c>
     </row>
     <row r="95" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C95" s="24">
+      <c r="C95" s="19">
         <f t="shared" si="19"/>
         <v>1.6129032258064516E-2</v>
       </c>
-      <c r="D95" s="21">
+      <c r="D95" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="E95" s="24">
+      <c r="E95" s="19">
         <f t="shared" si="19"/>
         <v>1.6393442622950821E-2</v>
       </c>
-      <c r="F95" s="21">
+      <c r="F95" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="G95" s="24">
+      <c r="G95" s="19">
         <f t="shared" si="19"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="H95" s="21">
+      <c r="H95" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="I95" s="24">
+      <c r="I95" s="19">
         <f t="shared" si="19"/>
         <v>1.6393442622950821E-2</v>
       </c>
-      <c r="J95" s="21">
+      <c r="J95" s="16">
         <f t="shared" si="16"/>
         <v>1.7236892500000001</v>
       </c>
@@ -19066,35 +19106,35 @@
       </c>
     </row>
     <row r="96" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C96" s="24">
+      <c r="C96" s="19">
         <f t="shared" si="19"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="D96" s="21">
+      <c r="D96" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="E96" s="24">
+      <c r="E96" s="19">
         <f t="shared" si="19"/>
         <v>1.6393442622950821E-2</v>
       </c>
-      <c r="F96" s="21">
+      <c r="F96" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="G96" s="24">
+      <c r="G96" s="19">
         <f t="shared" si="19"/>
         <v>1.6393442622950821E-2</v>
       </c>
-      <c r="H96" s="21">
+      <c r="H96" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="I96" s="24">
+      <c r="I96" s="19">
         <f t="shared" si="19"/>
         <v>1.6129032258064516E-2</v>
       </c>
-      <c r="J96" s="21">
+      <c r="J96" s="16">
         <f t="shared" si="16"/>
         <v>1.7236892500000001</v>
       </c>
@@ -19108,35 +19148,35 @@
       </c>
     </row>
     <row r="97" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C97" s="24">
+      <c r="C97" s="19">
         <f t="shared" si="19"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="D97" s="21">
+      <c r="D97" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="E97" s="24">
+      <c r="E97" s="19">
         <f t="shared" si="19"/>
         <v>1.5873015873015872E-2</v>
       </c>
-      <c r="F97" s="21">
+      <c r="F97" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892499999998</v>
       </c>
-      <c r="G97" s="24">
+      <c r="G97" s="19">
         <f t="shared" si="19"/>
         <v>1.6129032258064516E-2</v>
       </c>
-      <c r="H97" s="21">
+      <c r="H97" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="I97" s="24">
+      <c r="I97" s="19">
         <f t="shared" si="19"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="J97" s="21">
+      <c r="J97" s="16">
         <f t="shared" si="16"/>
         <v>1.7236892500000001</v>
       </c>
@@ -19150,35 +19190,35 @@
       </c>
     </row>
     <row r="98" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C98" s="24">
+      <c r="C98" s="19">
         <f t="shared" si="19"/>
         <v>1.5151515151515152E-2</v>
       </c>
-      <c r="D98" s="21">
+      <c r="D98" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="E98" s="24">
+      <c r="E98" s="19">
         <f t="shared" si="19"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="F98" s="21">
+      <c r="F98" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="G98" s="24">
+      <c r="G98" s="19">
         <f t="shared" si="19"/>
         <v>1.5873015873015872E-2</v>
       </c>
-      <c r="H98" s="21">
+      <c r="H98" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892499999998</v>
       </c>
-      <c r="I98" s="24">
+      <c r="I98" s="19">
         <f t="shared" si="19"/>
         <v>1.5384615384615385E-2</v>
       </c>
-      <c r="J98" s="21">
+      <c r="J98" s="16">
         <f t="shared" si="16"/>
         <v>1.7236892500000003</v>
       </c>
@@ -19192,35 +19232,35 @@
       </c>
     </row>
     <row r="99" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C99" s="24">
+      <c r="C99" s="19">
         <f t="shared" si="19"/>
         <v>1.4925373134328358E-2</v>
       </c>
-      <c r="D99" s="21">
+      <c r="D99" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="E99" s="24">
+      <c r="E99" s="19">
         <f t="shared" si="19"/>
         <v>1.5384615384615385E-2</v>
       </c>
-      <c r="F99" s="21">
+      <c r="F99" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892500000003</v>
       </c>
-      <c r="G99" s="24">
+      <c r="G99" s="19">
         <f t="shared" si="19"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="H99" s="21">
+      <c r="H99" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="I99" s="24">
+      <c r="I99" s="19">
         <f t="shared" si="19"/>
         <v>1.5151515151515152E-2</v>
       </c>
-      <c r="J99" s="21">
+      <c r="J99" s="16">
         <f t="shared" si="16"/>
         <v>1.7236892500000001</v>
       </c>
@@ -19234,35 +19274,35 @@
       </c>
     </row>
     <row r="100" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C100" s="24">
+      <c r="C100" s="19">
         <f t="shared" si="19"/>
         <v>1.4705882352941176E-2</v>
       </c>
-      <c r="D100" s="21">
+      <c r="D100" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="E100" s="24">
+      <c r="E100" s="19">
         <f t="shared" si="19"/>
         <v>1.5151515151515152E-2</v>
       </c>
-      <c r="F100" s="21">
+      <c r="F100" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="G100" s="24">
+      <c r="G100" s="19">
         <f t="shared" si="19"/>
         <v>1.5384615384615385E-2</v>
       </c>
-      <c r="H100" s="21">
+      <c r="H100" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892500000003</v>
       </c>
-      <c r="I100" s="24">
+      <c r="I100" s="19">
         <f t="shared" si="19"/>
         <v>1.4925373134328358E-2</v>
       </c>
-      <c r="J100" s="21">
+      <c r="J100" s="16">
         <f t="shared" si="16"/>
         <v>1.7236892500000001</v>
       </c>
@@ -19276,35 +19316,35 @@
       </c>
     </row>
     <row r="101" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C101" s="24">
+      <c r="C101" s="19">
         <f t="shared" si="19"/>
         <v>1.4705882352941176E-2</v>
       </c>
-      <c r="D101" s="21">
+      <c r="D101" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="E101" s="24">
+      <c r="E101" s="19">
         <f t="shared" si="19"/>
         <v>1.4705882352941176E-2</v>
       </c>
-      <c r="F101" s="21">
+      <c r="F101" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="G101" s="24">
+      <c r="G101" s="19">
         <f t="shared" si="19"/>
         <v>1.5151515151515152E-2</v>
       </c>
-      <c r="H101" s="21">
+      <c r="H101" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="I101" s="24">
+      <c r="I101" s="19">
         <f t="shared" si="19"/>
         <v>1.4705882352941176E-2</v>
       </c>
-      <c r="J101" s="21">
+      <c r="J101" s="16">
         <f t="shared" si="16"/>
         <v>1.7236892500000001</v>
       </c>
@@ -19318,32 +19358,32 @@
       </c>
     </row>
     <row r="102" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C102" s="24">
+      <c r="C102" s="19">
         <f t="shared" si="19"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="D102" s="21">
+      <c r="D102" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="E102" s="24">
+      <c r="E102" s="19">
         <f t="shared" si="19"/>
         <v>1.4705882352941176E-2</v>
       </c>
-      <c r="F102" s="21">
+      <c r="F102" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="G102" s="24">
+      <c r="G102" s="19">
         <f t="shared" si="19"/>
         <v>1.4925373134328358E-2</v>
       </c>
-      <c r="H102" s="21">
+      <c r="H102" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="I102" s="24"/>
-      <c r="J102" s="21"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="16"/>
       <c r="K102" s="5">
         <f t="shared" si="19"/>
         <v>1.4705882352941176E-2</v>
@@ -19354,32 +19394,32 @@
       </c>
     </row>
     <row r="103" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C103" s="24">
+      <c r="C103" s="19">
         <f t="shared" si="19"/>
         <v>1.4084507042253521E-2</v>
       </c>
-      <c r="D103" s="21">
+      <c r="D103" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="E103" s="24">
+      <c r="E103" s="19">
         <f t="shared" si="19"/>
         <v>1.4492753623188406E-2</v>
       </c>
-      <c r="F103" s="21">
+      <c r="F103" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="G103" s="24">
+      <c r="G103" s="19">
         <f t="shared" si="19"/>
         <v>1.4705882352941176E-2</v>
       </c>
-      <c r="H103" s="21">
+      <c r="H103" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="I103" s="24"/>
-      <c r="J103" s="21"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="16"/>
       <c r="K103" s="5">
         <f t="shared" si="19"/>
         <v>1.4492753623188406E-2</v>
@@ -19390,32 +19430,32 @@
       </c>
     </row>
     <row r="104" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C104" s="24">
+      <c r="C104" s="19">
         <f t="shared" si="19"/>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D104" s="21">
+      <c r="D104" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892499999998</v>
       </c>
-      <c r="E104" s="24">
+      <c r="E104" s="19">
         <f t="shared" si="19"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="F104" s="21">
+      <c r="F104" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="G104" s="24">
+      <c r="G104" s="19">
         <f t="shared" si="19"/>
         <v>1.4492753623188406E-2</v>
       </c>
-      <c r="H104" s="21">
+      <c r="H104" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="I104" s="24"/>
-      <c r="J104" s="21"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="16"/>
       <c r="K104" s="5">
         <f t="shared" si="19"/>
         <v>1.4285714285714285E-2</v>
@@ -19426,32 +19466,32 @@
       </c>
     </row>
     <row r="105" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C105" s="24">
+      <c r="C105" s="19">
         <f t="shared" si="19"/>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D105" s="21">
+      <c r="D105" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892499999998</v>
       </c>
-      <c r="E105" s="24">
+      <c r="E105" s="19">
         <f t="shared" si="19"/>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="F105" s="21">
+      <c r="F105" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892499999998</v>
       </c>
-      <c r="G105" s="24">
+      <c r="G105" s="19">
         <f t="shared" si="19"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="H105" s="21">
+      <c r="H105" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="I105" s="24"/>
-      <c r="J105" s="21"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="16"/>
       <c r="K105" s="5">
         <f t="shared" si="19"/>
         <v>1.3888888888888888E-2</v>
@@ -19462,32 +19502,32 @@
       </c>
     </row>
     <row r="106" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C106" s="24">
+      <c r="C106" s="19">
         <f t="shared" si="19"/>
         <v>1.3513513513513514E-2</v>
       </c>
-      <c r="D106" s="21">
+      <c r="D106" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="E106" s="24">
+      <c r="E106" s="19">
         <f t="shared" si="19"/>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="F106" s="21">
+      <c r="F106" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892499999998</v>
       </c>
-      <c r="G106" s="24">
+      <c r="G106" s="19">
         <f t="shared" si="19"/>
         <v>1.4084507042253521E-2</v>
       </c>
-      <c r="H106" s="21">
+      <c r="H106" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="I106" s="24"/>
-      <c r="J106" s="21"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="16"/>
       <c r="K106" s="5">
         <f t="shared" si="19"/>
         <v>1.3888888888888888E-2</v>
@@ -19498,32 +19538,32 @@
       </c>
     </row>
     <row r="107" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C107" s="24">
+      <c r="C107" s="19">
         <f t="shared" si="19"/>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="D107" s="21">
+      <c r="D107" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="E107" s="24">
+      <c r="E107" s="19">
         <f t="shared" si="19"/>
         <v>1.3698630136986301E-2</v>
       </c>
-      <c r="F107" s="21">
+      <c r="F107" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="G107" s="24">
+      <c r="G107" s="19">
         <f t="shared" si="19"/>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="H107" s="21">
+      <c r="H107" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892499999998</v>
       </c>
-      <c r="I107" s="24"/>
-      <c r="J107" s="21"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="16"/>
       <c r="K107" s="5">
         <f t="shared" si="19"/>
         <v>1.3888888888888888E-2</v>
@@ -19534,32 +19574,32 @@
       </c>
     </row>
     <row r="108" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C108" s="24">
+      <c r="C108" s="19">
         <f t="shared" si="19"/>
         <v>1.3157894736842105E-2</v>
       </c>
-      <c r="D108" s="21">
+      <c r="D108" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892499999998</v>
       </c>
-      <c r="E108" s="24">
+      <c r="E108" s="19">
         <f t="shared" si="19"/>
         <v>1.3698630136986301E-2</v>
       </c>
-      <c r="F108" s="21">
+      <c r="F108" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="G108" s="24">
+      <c r="G108" s="19">
         <f t="shared" si="19"/>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="H108" s="21">
+      <c r="H108" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892499999998</v>
       </c>
-      <c r="I108" s="24"/>
-      <c r="J108" s="21"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="16"/>
       <c r="K108" s="5">
         <f t="shared" si="19"/>
         <v>1.3888888888888888E-2</v>
@@ -19570,32 +19610,32 @@
       </c>
     </row>
     <row r="109" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C109" s="24">
+      <c r="C109" s="19">
         <f t="shared" si="19"/>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="D109" s="21">
+      <c r="D109" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="E109" s="24">
+      <c r="E109" s="19">
         <f t="shared" si="19"/>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="F109" s="21">
+      <c r="F109" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892499999998</v>
       </c>
-      <c r="G109" s="24">
+      <c r="G109" s="19">
         <f t="shared" si="19"/>
         <v>1.4084507042253521E-2</v>
       </c>
-      <c r="H109" s="21">
+      <c r="H109" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="I109" s="24"/>
-      <c r="J109" s="21"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="16"/>
       <c r="K109" s="5">
         <f t="shared" si="19"/>
         <v>1.4285714285714285E-2</v>
@@ -19606,32 +19646,32 @@
       </c>
     </row>
     <row r="110" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C110" s="24">
+      <c r="C110" s="19">
         <f t="shared" si="19"/>
         <v>1.3513513513513514E-2</v>
       </c>
-      <c r="D110" s="21">
+      <c r="D110" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="E110" s="24">
+      <c r="E110" s="19">
         <f t="shared" si="19"/>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="F110" s="21">
+      <c r="F110" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892499999998</v>
       </c>
-      <c r="G110" s="24">
+      <c r="G110" s="19">
         <f t="shared" si="19"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="H110" s="21">
+      <c r="H110" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="I110" s="24"/>
-      <c r="J110" s="21"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="16"/>
       <c r="K110" s="5">
         <f t="shared" si="19"/>
         <v>1.4084507042253521E-2</v>
@@ -19642,32 +19682,32 @@
       </c>
     </row>
     <row r="111" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C111" s="24">
+      <c r="C111" s="19">
         <f t="shared" si="19"/>
         <v>1.3513513513513514E-2</v>
       </c>
-      <c r="D111" s="21">
+      <c r="D111" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="E111" s="24">
+      <c r="E111" s="19">
         <f t="shared" si="19"/>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="F111" s="21">
+      <c r="F111" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892499999998</v>
       </c>
-      <c r="G111" s="24">
+      <c r="G111" s="19">
         <f t="shared" si="19"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="H111" s="21">
+      <c r="H111" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="I111" s="24"/>
-      <c r="J111" s="21"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="16"/>
       <c r="K111" s="5">
         <f t="shared" si="19"/>
         <v>1.4285714285714285E-2</v>
@@ -19678,32 +19718,32 @@
       </c>
     </row>
     <row r="112" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C112" s="24">
+      <c r="C112" s="19">
         <f t="shared" si="19"/>
         <v>1.3513513513513514E-2</v>
       </c>
-      <c r="D112" s="21">
+      <c r="D112" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="E112" s="24">
+      <c r="E112" s="19">
         <f t="shared" si="19"/>
         <v>1.4084507042253521E-2</v>
       </c>
-      <c r="F112" s="21">
+      <c r="F112" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="G112" s="24">
+      <c r="G112" s="19">
         <f t="shared" si="19"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="H112" s="21">
+      <c r="H112" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="I112" s="24"/>
-      <c r="J112" s="21"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="16"/>
       <c r="K112" s="5">
         <f t="shared" si="19"/>
         <v>1.4492753623188406E-2</v>
@@ -19714,32 +19754,32 @@
       </c>
     </row>
     <row r="113" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C113" s="24">
+      <c r="C113" s="19">
         <f t="shared" si="19"/>
         <v>1.3513513513513514E-2</v>
       </c>
-      <c r="D113" s="21">
+      <c r="D113" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="E113" s="24">
+      <c r="E113" s="19">
         <f t="shared" si="19"/>
         <v>1.4084507042253521E-2</v>
       </c>
-      <c r="F113" s="21">
+      <c r="F113" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="G113" s="24">
+      <c r="G113" s="19">
         <f t="shared" si="19"/>
         <v>1.4492753623188406E-2</v>
       </c>
-      <c r="H113" s="21">
+      <c r="H113" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="I113" s="24"/>
-      <c r="J113" s="21"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="16"/>
       <c r="K113" s="5">
         <f t="shared" si="19"/>
         <v>1.4492753623188406E-2</v>
@@ -19750,32 +19790,32 @@
       </c>
     </row>
     <row r="114" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C114" s="24">
+      <c r="C114" s="19">
         <f t="shared" si="19"/>
         <v>1.3698630136986301E-2</v>
       </c>
-      <c r="D114" s="21">
+      <c r="D114" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="E114" s="24">
+      <c r="E114" s="19">
         <f t="shared" si="19"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="F114" s="21">
+      <c r="F114" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="G114" s="24">
+      <c r="G114" s="19">
         <f t="shared" si="19"/>
         <v>1.4492753623188406E-2</v>
       </c>
-      <c r="H114" s="21">
+      <c r="H114" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="I114" s="24"/>
-      <c r="J114" s="21"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="16"/>
       <c r="K114" s="5">
         <f t="shared" si="19"/>
         <v>1.4705882352941176E-2</v>
@@ -19786,32 +19826,32 @@
       </c>
     </row>
     <row r="115" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C115" s="24">
+      <c r="C115" s="19">
         <f t="shared" si="19"/>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D115" s="21">
+      <c r="D115" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892499999998</v>
       </c>
-      <c r="E115" s="24">
+      <c r="E115" s="19">
         <f t="shared" si="19"/>
         <v>1.4492753623188406E-2</v>
       </c>
-      <c r="F115" s="21">
+      <c r="F115" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="G115" s="24">
+      <c r="G115" s="19">
         <f t="shared" si="19"/>
         <v>1.4705882352941176E-2</v>
       </c>
-      <c r="H115" s="21">
+      <c r="H115" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="I115" s="24"/>
-      <c r="J115" s="21"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="16"/>
       <c r="K115" s="5">
         <f t="shared" si="19"/>
         <v>1.4925373134328358E-2</v>
@@ -19822,32 +19862,32 @@
       </c>
     </row>
     <row r="116" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C116" s="24">
+      <c r="C116" s="19">
         <f t="shared" si="19"/>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D116" s="21">
+      <c r="D116" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892499999998</v>
       </c>
-      <c r="E116" s="24">
+      <c r="E116" s="19">
         <f t="shared" si="19"/>
         <v>1.4705882352941176E-2</v>
       </c>
-      <c r="F116" s="21">
+      <c r="F116" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="G116" s="24">
+      <c r="G116" s="19">
         <f t="shared" si="19"/>
         <v>1.4705882352941176E-2</v>
       </c>
-      <c r="H116" s="21">
+      <c r="H116" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="I116" s="24"/>
-      <c r="J116" s="21"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="16"/>
       <c r="K116" s="5">
         <f t="shared" si="19"/>
         <v>1.4925373134328358E-2</v>
@@ -19858,32 +19898,32 @@
       </c>
     </row>
     <row r="117" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C117" s="24">
+      <c r="C117" s="19">
         <f t="shared" si="19"/>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D117" s="21">
+      <c r="D117" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892499999998</v>
       </c>
-      <c r="E117" s="24">
+      <c r="E117" s="19">
         <f t="shared" si="19"/>
         <v>1.4705882352941176E-2</v>
       </c>
-      <c r="F117" s="21">
+      <c r="F117" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="G117" s="24">
+      <c r="G117" s="19">
         <f t="shared" si="19"/>
         <v>1.4705882352941176E-2</v>
       </c>
-      <c r="H117" s="21">
+      <c r="H117" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="I117" s="24"/>
-      <c r="J117" s="21"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="16"/>
       <c r="K117" s="5">
         <f t="shared" si="19"/>
         <v>1.5151515151515152E-2</v>
@@ -19894,188 +19934,188 @@
       </c>
     </row>
     <row r="118" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C118" s="24">
+      <c r="C118" s="19">
         <f t="shared" si="19"/>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D118" s="21">
+      <c r="D118" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892499999998</v>
       </c>
-      <c r="E118" s="24">
+      <c r="E118" s="19">
         <f t="shared" si="19"/>
         <v>1.4925373134328358E-2</v>
       </c>
-      <c r="F118" s="21">
+      <c r="F118" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="G118" s="24">
+      <c r="G118" s="19">
         <f t="shared" si="19"/>
         <v>1.4925373134328358E-2</v>
       </c>
-      <c r="H118" s="21">
+      <c r="H118" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="I118" s="24"/>
-      <c r="J118" s="21"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="16"/>
       <c r="K118" s="5"/>
       <c r="L118" s="4"/>
     </row>
     <row r="119" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C119" s="24">
+      <c r="C119" s="19">
         <f t="shared" si="19"/>
         <v>1.4084507042253521E-2</v>
       </c>
-      <c r="D119" s="21">
+      <c r="D119" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="E119" s="24">
+      <c r="E119" s="19">
         <f t="shared" si="19"/>
         <v>1.5151515151515152E-2</v>
       </c>
-      <c r="F119" s="21">
+      <c r="F119" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="G119" s="24">
+      <c r="G119" s="19">
         <f t="shared" si="19"/>
         <v>1.4925373134328358E-2</v>
       </c>
-      <c r="H119" s="21">
+      <c r="H119" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="I119" s="24"/>
-      <c r="J119" s="21"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="16"/>
       <c r="K119" s="5"/>
       <c r="L119" s="4"/>
     </row>
     <row r="120" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C120" s="24">
+      <c r="C120" s="19">
         <f t="shared" si="19"/>
         <v>1.4084507042253521E-2</v>
       </c>
-      <c r="D120" s="21">
+      <c r="D120" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="E120" s="24">
+      <c r="E120" s="19">
         <f t="shared" si="19"/>
         <v>1.5384615384615385E-2</v>
       </c>
-      <c r="F120" s="21">
+      <c r="F120" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892500000003</v>
       </c>
-      <c r="G120" s="24">
+      <c r="G120" s="19">
         <f t="shared" si="19"/>
         <v>1.4925373134328358E-2</v>
       </c>
-      <c r="H120" s="21">
+      <c r="H120" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="I120" s="24"/>
-      <c r="J120" s="21"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="16"/>
       <c r="K120" s="5"/>
       <c r="L120" s="4"/>
     </row>
     <row r="121" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C121" s="24">
+      <c r="C121" s="19">
         <f t="shared" si="19"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="D121" s="21">
+      <c r="D121" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="E121" s="24">
+      <c r="E121" s="19">
         <f t="shared" si="19"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="F121" s="21">
+      <c r="F121" s="16">
         <f t="shared" si="12"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="G121" s="24">
+      <c r="G121" s="19">
         <f t="shared" si="19"/>
         <v>1.5151515151515152E-2</v>
       </c>
-      <c r="H121" s="21">
+      <c r="H121" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="I121" s="24"/>
-      <c r="J121" s="21"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="16"/>
       <c r="K121" s="5"/>
       <c r="L121" s="4"/>
     </row>
     <row r="122" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C122" s="24">
+      <c r="C122" s="19">
         <f t="shared" si="19"/>
         <v>1.4705882352941176E-2</v>
       </c>
-      <c r="D122" s="21">
+      <c r="D122" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="E122" s="24"/>
-      <c r="F122" s="21"/>
-      <c r="G122" s="24">
+      <c r="E122" s="19"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="19">
         <f t="shared" si="19"/>
         <v>1.5151515151515152E-2</v>
       </c>
-      <c r="H122" s="21">
+      <c r="H122" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="I122" s="24"/>
-      <c r="J122" s="21"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="16"/>
       <c r="K122" s="5"/>
       <c r="L122" s="4"/>
     </row>
     <row r="123" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C123" s="24">
+      <c r="C123" s="19">
         <f t="shared" si="19"/>
         <v>1.4705882352941176E-2</v>
       </c>
-      <c r="D123" s="21">
+      <c r="D123" s="16">
         <f t="shared" si="10"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="E123" s="24"/>
-      <c r="F123" s="21"/>
-      <c r="G123" s="24">
+      <c r="E123" s="19"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="19">
         <f t="shared" si="19"/>
         <v>1.5151515151515152E-2</v>
       </c>
-      <c r="H123" s="21">
+      <c r="H123" s="16">
         <f t="shared" si="14"/>
         <v>1.7236892500000001</v>
       </c>
-      <c r="I123" s="24"/>
-      <c r="J123" s="21"/>
+      <c r="I123" s="19"/>
+      <c r="J123" s="16"/>
       <c r="K123" s="5"/>
       <c r="L123" s="4"/>
     </row>
     <row r="124" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C124" s="24"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="22"/>
-      <c r="G124" s="24">
+      <c r="C124" s="19"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="19">
         <f t="shared" si="19"/>
         <v>1.5384615384615385E-2</v>
       </c>
-      <c r="H124" s="21">
+      <c r="H124" s="16">
         <f t="shared" ref="H124" si="20">G124*H84</f>
         <v>1.7236892500000003</v>
       </c>
-      <c r="I124" s="24"/>
-      <c r="J124" s="22"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="17"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
     </row>
@@ -21345,25 +21385,25 @@
       </c>
     </row>
     <row r="220" spans="4:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D220" s="25"/>
-      <c r="E220" s="11" t="s">
+      <c r="D220" s="20"/>
+      <c r="E220" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F220" s="11" t="s">
+      <c r="F220" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G220" s="11" t="s">
+      <c r="G220" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H220" s="11" t="s">
+      <c r="H220" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I220" s="11" t="s">
+      <c r="I220" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="221" spans="4:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D221" s="26" t="s">
+      <c r="D221" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E221">
@@ -21383,7 +21423,7 @@
       </c>
     </row>
     <row r="222" spans="4:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D222" s="26" t="s">
+      <c r="D222" s="21" t="s">
         <v>32</v>
       </c>
       <c r="E222">
@@ -21392,7 +21432,7 @@
       </c>
     </row>
     <row r="223" spans="4:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D223" s="26" t="s">
+      <c r="D223" s="21" t="s">
         <v>33</v>
       </c>
       <c r="E223">
@@ -22481,21 +22521,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="E90:F90"/>
     <mergeCell ref="G90:H90"/>
     <mergeCell ref="I90:J90"/>
     <mergeCell ref="K90:L90"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Chemistry/draft/data/data.xlsx
+++ b/Chemistry/draft/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Folder2021\IAProjects\Chemistry\draft\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88B3C15-2424-46E9-B4D0-7665327E4799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE924DA-DD5A-4D57-85CF-2C1739A4C1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="484" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -345,7 +345,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="13" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -367,7 +367,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -383,6 +382,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Accent 1 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -16550,15 +16553,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:M365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J187" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C203" sqref="C203"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I215" sqref="I215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="13.75" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="12" width="13.75" customWidth="1"/>
+    <col min="5" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="12" width="13.75" customWidth="1"/>
     <col min="15" max="15" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16584,26 +16588,26 @@
       </c>
     </row>
     <row r="6" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="26" t="s">
+      <c r="H6" s="22"/>
+      <c r="I6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="26" t="s">
+      <c r="J6" s="22"/>
+      <c r="K6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="26"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="7" t="s">
@@ -17599,26 +17603,26 @@
       </c>
     </row>
     <row r="49" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="23"/>
-      <c r="E49" s="24" t="s">
+      <c r="D49" s="22"/>
+      <c r="E49" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F49" s="25"/>
-      <c r="G49" s="26" t="s">
+      <c r="F49" s="24"/>
+      <c r="G49" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H49" s="23"/>
-      <c r="I49" s="26" t="s">
+      <c r="H49" s="22"/>
+      <c r="I49" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J49" s="23"/>
-      <c r="K49" s="26" t="s">
+      <c r="J49" s="22"/>
+      <c r="K49" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L49" s="26"/>
+      <c r="L49" s="25"/>
     </row>
     <row r="50" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="7" t="s">
@@ -18884,26 +18888,26 @@
       </c>
     </row>
     <row r="90" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D90" s="23"/>
-      <c r="E90" s="24" t="s">
+      <c r="D90" s="22"/>
+      <c r="E90" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F90" s="25"/>
-      <c r="G90" s="26" t="s">
+      <c r="F90" s="24"/>
+      <c r="G90" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H90" s="23"/>
-      <c r="I90" s="26" t="s">
+      <c r="H90" s="22"/>
+      <c r="I90" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J90" s="23"/>
-      <c r="K90" s="26" t="s">
+      <c r="J90" s="22"/>
+      <c r="K90" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L90" s="26"/>
+      <c r="L90" s="25"/>
     </row>
     <row r="91" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="8" t="s">
@@ -21379,12 +21383,23 @@
       <c r="G169" s="3"/>
       <c r="H169" s="2"/>
     </row>
-    <row r="217" spans="4:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D217" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="4:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F218" s="7"/>
+      <c r="G218" s="7"/>
+    </row>
+    <row r="219" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F219" s="29"/>
+      <c r="G219" s="29"/>
+      <c r="H219" s="29"/>
+      <c r="I219" s="29"/>
+      <c r="J219" s="7"/>
+    </row>
+    <row r="220" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D220" s="20"/>
       <c r="E220" s="8" t="s">
         <v>19</v>
@@ -21398,12 +21413,18 @@
       <c r="H220" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I220" s="8" t="s">
+      <c r="I220" s="27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="221" spans="4:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D221" s="21" t="s">
+      <c r="J220" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K220" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="221" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D221" s="28" t="s">
         <v>31</v>
       </c>
       <c r="E221">
@@ -21418,27 +21439,20 @@
       <c r="H221">
         <v>-295.73</v>
       </c>
-      <c r="I221">
+      <c r="I221" s="26">
         <v>-296.98</v>
       </c>
-    </row>
-    <row r="222" spans="4:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D222" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E222">
+      <c r="J221">
         <f>AVERAGE(E221:I221)</f>
         <v>-292.012</v>
       </c>
-    </row>
-    <row r="223" spans="4:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D223" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E223">
+      <c r="K221">
         <f>0.5*(MAX(E221:I221)-MIN(E221:I221))</f>
         <v>21.695000000000022</v>
       </c>
+    </row>
+    <row r="224" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E224" s="7"/>
     </row>
     <row r="226" spans="4:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D226" s="6" t="s">
@@ -22521,21 +22535,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="K90:L90"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
